--- a/excel/input/student_sample2.xlsx
+++ b/excel/input/student_sample2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukikenichi/pro-main/lab-lottery/excel/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{59C72761-A295-1941-A697-B3805432833F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E38D43CF-F074-034E-BE3B-BAF00B066077}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{24977268-95BB-284C-99AB-432946F42C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -510,16 +510,16 @@
     <t>萩原郁哉</t>
   </si>
   <si>
-    <t>徳良</t>
+    <t>樋川直人</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳良真</t>
     <rPh sb="0" eb="1">
       <t>トクタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>樋川</t>
-    <rPh sb="0" eb="2">
-      <t>ヒカワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522E525E-CA32-2D4A-9F07-EDEBB9C5FC8D}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -950,7 +950,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>16</v>
@@ -2991,7 +2991,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>

--- a/excel/input/student_sample2.xlsx
+++ b/excel/input/student_sample2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukikenichi/pro-main/lab-lottery/excel/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E38D43CF-F074-034E-BE3B-BAF00B066077}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{25E14954-DD8A-AB4C-B6B6-3A454A79EC8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{24977268-95BB-284C-99AB-432946F42C20}"/>
   </bookViews>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522E525E-CA32-2D4A-9F07-EDEBB9C5FC8D}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
